--- a/data_output/prism_passive/all_passive_out_strain_AT_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_AT_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>46.985921273871867</v>
+        <v>46.985921337589872</v>
       </c>
       <c r="C2">
-        <v>30.091721535755354</v>
+        <v>30.091721525784116</v>
       </c>
       <c r="D2">
-        <v>59.205635808358018</v>
+        <v>59.205635535094537</v>
       </c>
       <c r="E2">
-        <v>49.255943409012417</v>
+        <v>49.255943601227386</v>
       </c>
       <c r="F2">
-        <v>172.74364005346877</v>
+        <v>172.74364009800038</v>
       </c>
       <c r="G2">
-        <v>11.045261773642416</v>
+        <v>11.045261840065955</v>
       </c>
       <c r="H2">
-        <v>5.3512452873185286</v>
+        <v>5.3512453543929848</v>
       </c>
       <c r="I2">
-        <v>15.634932554449282</v>
+        <v>15.634932575172181</v>
       </c>
       <c r="J2">
-        <v>12.410179722641463</v>
+        <v>12.410179756228068</v>
       </c>
       <c r="K2">
-        <v>15.917306629084665</v>
+        <v>15.917306723383287</v>
       </c>
       <c r="L2">
-        <v>7.6672332646533388</v>
+        <v>7.6672332774951846</v>
       </c>
       <c r="M2">
-        <v>20.199847844984024</v>
+        <v>20.1998478441188</v>
       </c>
       <c r="N2">
-        <v>4.4213526664090432</v>
+        <v>4.421352781285794</v>
       </c>
       <c r="O2">
-        <v>-4.9780498559949669</v>
+        <v>-4.9780497834489532</v>
       </c>
       <c r="P2">
-        <v>56.272551919086133</v>
+        <v>56.272551863218709</v>
       </c>
       <c r="Q2">
-        <v>34.397879251250565</v>
+        <v>34.397879329158613</v>
       </c>
       <c r="R2">
-        <v>10.722787787963712</v>
+        <v>10.722787820974062</v>
       </c>
       <c r="S2">
-        <v>17.394416377344641</v>
+        <v>17.394416406510153</v>
       </c>
       <c r="T2">
-        <v>1.0385783144167362</v>
+        <v>1.0385783141538127</v>
       </c>
       <c r="U2">
-        <v>-16.954581154346393</v>
+        <v>-16.954581084110274</v>
       </c>
       <c r="V2">
-        <v>18.776480815993885</v>
+        <v>18.776480910181458</v>
       </c>
       <c r="W2">
-        <v>21.971531164229258</v>
+        <v>21.971531242942433</v>
       </c>
       <c r="X2">
-        <v>4.2347265063623203</v>
+        <v>4.2347265045665203</v>
       </c>
       <c r="Y2">
-        <v>-9.2178826056998613</v>
+        <v>-9.2178825588085598</v>
       </c>
       <c r="Z2">
-        <v>51.046211226974805</v>
+        <v>51.046211277776074</v>
       </c>
       <c r="AA2">
-        <v>10.142515419947649</v>
+        <v>10.142515449090181</v>
       </c>
       <c r="AB2">
-        <v>39.400184447548021</v>
+        <v>39.400184459957529</v>
       </c>
       <c r="AC2">
-        <v>16.679775618307861</v>
+        <v>16.679775677422086</v>
       </c>
       <c r="AD2">
-        <v>55.507518663651332</v>
+        <v>55.507518712105721</v>
       </c>
       <c r="AE2">
-        <v>105.07809606969842</v>
+        <v>105.07809593328253</v>
       </c>
       <c r="AF2">
-        <v>16.686618221931482</v>
+        <v>16.686618222086739</v>
       </c>
       <c r="AG2">
-        <v>9.0862241242913893</v>
+        <v>9.0862241891545086</v>
       </c>
       <c r="AH2">
-        <v>18.1006392425322</v>
+        <v>18.100639277636091</v>
       </c>
       <c r="AI2">
-        <v>1.4306996260717793</v>
+        <v>1.4306996525004254</v>
       </c>
       <c r="AJ2">
-        <v>20.153463334336433</v>
+        <v>20.153463397649229</v>
       </c>
       <c r="AK2">
-        <v>13.320110165161047</v>
+        <v>13.320110189449039</v>
       </c>
       <c r="AL2">
-        <v>9.9042560239944386</v>
+        <v>9.9042559968754187</v>
       </c>
       <c r="AM2">
-        <v>8.0029106982778107</v>
+        <v>8.0029107897876148</v>
       </c>
       <c r="AN2">
-        <v>8.8686546339997818</v>
+        <v>8.868654793999573</v>
       </c>
       <c r="AO2">
-        <v>28.091072561266962</v>
+        <v>28.091072534551188</v>
       </c>
       <c r="AP2">
-        <v>6.1009148816877943</v>
+        <v>6.1009149449399427</v>
       </c>
       <c r="AQ2">
-        <v>15.404341321342462</v>
+        <v>15.404341402094454</v>
       </c>
       <c r="AR2">
-        <v>12.294305880177928</v>
+        <v>12.294305875562367</v>
       </c>
       <c r="AS2">
-        <v>14.348641704638787</v>
+        <v>14.348641692963465</v>
       </c>
       <c r="AT2">
-        <v>-2.3042390676083579</v>
+        <v>-2.3042390230326535</v>
       </c>
       <c r="AU2">
-        <v>5.5106398537807282</v>
+        <v>5.5106398913146633</v>
       </c>
       <c r="AV2">
-        <v>51.826302689080229</v>
+        <v>51.826302725172788</v>
       </c>
       <c r="AW2">
-        <v>10.20536343271459</v>
+        <v>10.205363469214115</v>
       </c>
       <c r="AX2">
-        <v>20.23267056904702</v>
+        <v>20.232670361181359</v>
       </c>
       <c r="AY2">
-        <v>-3.3368003414933436</v>
+        <v>-3.3368003350023789</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>47.256692732080872</v>
+        <v>47.25669269030395</v>
       </c>
       <c r="C3">
-        <v>23.576449455501674</v>
+        <v>23.576449432548912</v>
       </c>
       <c r="D3">
-        <v>-9.341004825213199</v>
+        <v>-9.3410047996276795</v>
       </c>
       <c r="E3">
-        <v>25.151404689726974</v>
+        <v>25.15140470845796</v>
       </c>
       <c r="F3">
-        <v>31.996227146194599</v>
+        <v>31.996227255731235</v>
       </c>
       <c r="G3">
-        <v>9.7941955768118802</v>
+        <v>9.7941956284550749</v>
       </c>
       <c r="H3">
-        <v>3.8027148469051331</v>
+        <v>3.8027148901405758</v>
       </c>
       <c r="I3">
-        <v>5.2912064149717937</v>
+        <v>5.2912064503689962</v>
       </c>
       <c r="J3">
-        <v>10.408627702551779</v>
+        <v>10.408627710576829</v>
       </c>
       <c r="K3">
-        <v>-11.14943132553088</v>
+        <v>-11.14943128062847</v>
       </c>
       <c r="L3">
-        <v>-24.148367990708316</v>
+        <v>-24.148367943768591</v>
       </c>
       <c r="M3">
-        <v>38.787847215269053</v>
+        <v>38.788334506975197</v>
       </c>
       <c r="N3">
-        <v>7.0433306298237381</v>
+        <v>7.043330695426846</v>
       </c>
       <c r="O3">
-        <v>9.1606184639961334</v>
+        <v>9.1606185307708188</v>
       </c>
       <c r="P3">
-        <v>8.3202664516074911</v>
+        <v>8.3202664592033244</v>
       </c>
       <c r="Q3">
-        <v>26.825942081613924</v>
+        <v>26.825942199438668</v>
       </c>
       <c r="R3">
-        <v>28.120443452800476</v>
+        <v>28.120443518712122</v>
       </c>
       <c r="S3">
-        <v>13.496911366730984</v>
+        <v>13.496911398584352</v>
       </c>
       <c r="T3">
-        <v>7.4939339588309455</v>
+        <v>7.4939340176221929</v>
       </c>
       <c r="U3">
-        <v>4.0703310322664379</v>
+        <v>4.0703310721550974</v>
       </c>
       <c r="V3">
-        <v>-26.845380160555372</v>
+        <v>-26.845380130537187</v>
       </c>
       <c r="W3">
-        <v>-1.1179502959529743</v>
+        <v>-1.1179501611396474</v>
       </c>
       <c r="X3">
-        <v>18.466056521417222</v>
+        <v>18.466056786951921</v>
       </c>
       <c r="Y3">
-        <v>9.0214015039467839</v>
+        <v>9.0214015534508736</v>
       </c>
       <c r="Z3">
-        <v>4.4309869872074099</v>
+        <v>4.4309869960765029</v>
       </c>
       <c r="AA3">
-        <v>26.801720507602191</v>
+        <v>26.801720513668116</v>
       </c>
       <c r="AB3">
-        <v>30.451656466292892</v>
+        <v>30.451656473891319</v>
       </c>
       <c r="AC3">
-        <v>12.935037904349178</v>
+        <v>12.93503798046601</v>
       </c>
       <c r="AD3">
-        <v>35.9114029018153</v>
+        <v>35.911403095343907</v>
       </c>
       <c r="AE3">
-        <v>30.543052030983276</v>
+        <v>30.543052099565021</v>
       </c>
       <c r="AF3">
-        <v>19.201040655710216</v>
+        <v>19.20104067108819</v>
       </c>
       <c r="AG3">
-        <v>2.3039034341549489</v>
+        <v>2.303903718032807</v>
       </c>
       <c r="AH3">
-        <v>7.9024946334450288</v>
+        <v>7.9024945605537704</v>
       </c>
       <c r="AI3">
-        <v>21.299747066943276</v>
+        <v>21.299747174986575</v>
       </c>
       <c r="AJ3">
-        <v>6.0541650846901849</v>
+        <v>6.0541650956272317</v>
       </c>
       <c r="AK3">
-        <v>-1.4322504117097268</v>
+        <v>-1.4322504017293685</v>
       </c>
       <c r="AL3">
-        <v>1.1183723751402668</v>
+        <v>1.1183724244300166</v>
       </c>
       <c r="AM3">
-        <v>17.000397614959383</v>
+        <v>17.000397684384801</v>
       </c>
       <c r="AN3">
-        <v>41.709626855201101</v>
+        <v>41.709626966159398</v>
       </c>
       <c r="AO3">
-        <v>24.965569936088663</v>
+        <v>24.965569990232787</v>
       </c>
       <c r="AP3">
-        <v>12.09809987358355</v>
+        <v>12.098099953015577</v>
       </c>
       <c r="AQ3">
-        <v>8.4999347420645837</v>
+        <v>8.4999347372512712</v>
       </c>
       <c r="AR3">
-        <v>8.806277814078598</v>
+        <v>8.80627781791733</v>
       </c>
       <c r="AS3">
-        <v>26.761773823721402</v>
+        <v>26.761773865743844</v>
       </c>
       <c r="AT3">
-        <v>9.6365489448707606</v>
+        <v>9.6365489274125711</v>
       </c>
       <c r="AU3">
-        <v>10.269591658130881</v>
+        <v>10.269591713613799</v>
       </c>
       <c r="AV3">
-        <v>4.462243799266445</v>
+        <v>4.462243861461781</v>
       </c>
       <c r="AW3">
-        <v>41.166538471627575</v>
+        <v>41.166538774151988</v>
       </c>
       <c r="AX3">
-        <v>24.989317081439491</v>
+        <v>24.989317192982032</v>
       </c>
       <c r="AY3">
-        <v>10.36225017204263</v>
+        <v>10.362250241992726</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_AT_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_AT_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>46.985921337589872</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>30.091721525784116</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>59.205635535094537</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>49.255943601227386</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>172.74364009800038</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>11.045261840065955</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>5.3512453543929848</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>15.634932575172181</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>12.410179756228068</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>15.917306723383287</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.6672332774951846</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>20.1998478441188</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>4.421352781285794</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-4.9780497834489532</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>56.272551863218709</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>34.397879329158613</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>10.722787820974062</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>17.394416406510153</v>
+        <v>17.394344656707602</v>
       </c>
       <c r="T2">
         <v>1.0385783141538127</v>
@@ -576,147 +465,144 @@
         <v>18.776480910181458</v>
       </c>
       <c r="W2">
-        <v>21.971531242942433</v>
+        <v>21.971409063685666</v>
       </c>
       <c r="X2">
-        <v>4.2347265045665203</v>
+        <v>4.2348354916030395</v>
       </c>
       <c r="Y2">
         <v>-9.2178825588085598</v>
       </c>
       <c r="Z2">
-        <v>51.046211277776074</v>
+        <v>51.046316364824953</v>
       </c>
       <c r="AA2">
-        <v>10.142515449090181</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>39.400184459957529</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>16.679775677422086</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>55.507518712105721</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>105.07809593328253</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>16.686618222086739</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>9.0862241891545086</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>18.100639277636091</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.4306996525004254</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>20.153463397649229</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>13.320110189449039</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>9.9042559968754187</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>8.0029107897876148</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>8.868654793999573</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>28.091072534551188</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>6.1009149449399427</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>15.404341402094454</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>12.294305875562367</v>
+        <v>12.294372170110659</v>
       </c>
       <c r="AS2">
         <v>14.348641692963465</v>
       </c>
       <c r="AT2">
-        <v>-2.3042390230326535</v>
+        <v>-2.3042967127458813</v>
       </c>
       <c r="AU2">
-        <v>5.5106398913146633</v>
+        <v>5.5106992276975788</v>
       </c>
       <c r="AV2">
-        <v>51.826302725172788</v>
+        <v>51.82616462718309</v>
       </c>
       <c r="AW2">
-        <v>10.205363469214115</v>
+        <v>10.205477483019521</v>
       </c>
       <c r="AX2">
-        <v>20.232670361181359</v>
+        <v>20.232783255018397</v>
       </c>
       <c r="AY2">
-        <v>-3.3368003350023789</v>
+        <v>-3.3367452774499191</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>47.25669269030395</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>23.576449432548912</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-9.3410047996276795</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>25.15140470845796</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>31.996227255731235</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>9.7941956284550749</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.8027148901405758</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>5.2912064503689962</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>10.408627710576829</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-11.14943128062847</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-24.148367943768591</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>38.788334506975197</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>7.043330695426846</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.1606185307708188</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>8.3202664592033244</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>26.825942199438668</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>28.120443518712122</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>13.496911398584352</v>
@@ -728,94 +614,94 @@
         <v>4.0703310721550974</v>
       </c>
       <c r="V3">
-        <v>-26.845380130537187</v>
+        <v>-26.845342466511447</v>
       </c>
       <c r="W3">
-        <v>-1.1179501611396474</v>
+        <v>-1.1179023875787608</v>
       </c>
       <c r="X3">
-        <v>18.466056786951921</v>
+        <v>18.465877011249688</v>
       </c>
       <c r="Y3">
-        <v>9.0214015534508736</v>
+        <v>-37.104686916073874</v>
       </c>
       <c r="Z3">
-        <v>4.4309869960765029</v>
+        <v>-8.4135446124231148</v>
       </c>
       <c r="AA3">
-        <v>26.801720513668116</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>30.451656473891319</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>12.93503798046601</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>35.911403095343907</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>30.543052099565021</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>19.20104067108819</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>2.303903718032807</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>7.9024945605537704</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>21.299747174986575</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>6.0541650956272317</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>-1.4322504017293685</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.1183724244300166</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>17.000397684384801</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>41.709626966159398</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>24.965569990232787</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>12.098099953015577</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>8.4999347372512712</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>8.80627781791733</v>
+        <v>8.8062098080422437</v>
       </c>
       <c r="AS3">
-        <v>26.761773865743844</v>
+        <v>26.761830640255695</v>
       </c>
       <c r="AT3">
         <v>9.6365489274125711</v>
       </c>
       <c r="AU3">
-        <v>10.269591713613799</v>
+        <v>10.269656094417694</v>
       </c>
       <c r="AV3">
-        <v>4.462243861461781</v>
+        <v>4.4622925183759543</v>
       </c>
       <c r="AW3">
         <v>41.166538774151988</v>
       </c>
       <c r="AX3">
-        <v>24.989317192982032</v>
+        <v>12.27313197987934</v>
       </c>
       <c r="AY3">
-        <v>10.362250241992726</v>
+        <v>-48.594549901089408</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_AT_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_AT_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>46.985828670240906</v>
+        <v>-4.977969127720586</v>
       </c>
       <c r="C2">
-        <v>14.318986049695242</v>
+        <v>10.722787820974062</v>
       </c>
       <c r="D2">
-        <v>59.205723160045466</v>
+        <v>8.8685582203942523</v>
       </c>
       <c r="E2">
-        <v>49.255825310557221</v>
+        <v>15.404249389654476</v>
       </c>
       <c r="F2">
         <v>172.74364005346877</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>47.256692732080872</v>
+        <v>9.1606185307708188</v>
       </c>
       <c r="C3">
-        <v>9.081946422772571</v>
+        <v>28.120344471525261</v>
       </c>
       <c r="D3">
-        <v>-9.3410529000590223</v>
+        <v>41.709503591796292</v>
       </c>
       <c r="E3">
-        <v>25.151488355495189</v>
+        <v>9.2166417836742944</v>
       </c>
       <c r="F3">
         <v>31.996227146194599</v>

--- a/data_output/prism_passive/all_passive_out_strain_AT_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_AT_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>46.985828670240906</v>
+        <v>49.301159418377814</v>
       </c>
       <c r="C2">
-        <v>14.318986049695242</v>
+        <v>-4.977969127720586</v>
       </c>
       <c r="D2">
-        <v>59.205723160045466</v>
+        <v>1.1676935802359607</v>
       </c>
       <c r="E2">
-        <v>49.255825310557221</v>
+        <v>8.8685582203942523</v>
       </c>
       <c r="F2">
         <v>172.74364005346877</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>47.256692732080872</v>
+        <v>46.018332723408086</v>
       </c>
       <c r="C3">
-        <v>9.081946422772571</v>
+        <v>9.1606185307708188</v>
       </c>
       <c r="D3">
-        <v>-9.3410529000590223</v>
+        <v>-13.455662020161444</v>
       </c>
       <c r="E3">
-        <v>25.151488355495189</v>
+        <v>41.709503591796292</v>
       </c>
       <c r="F3">
         <v>31.996227146194599</v>

--- a/data_output/prism_passive/all_passive_out_strain_AT_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_AT_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>46.985828733958876</v>
+      </c>
+      <c r="C2">
+        <v>14.318986040932947</v>
+      </c>
+      <c r="D2">
+        <v>59.205722886781842</v>
+      </c>
+      <c r="E2">
+        <v>49.255825502772041</v>
+      </c>
+      <c r="F2">
+        <v>172.74364009800038</v>
+      </c>
+      <c r="G2">
+        <v>11.045169226705937</v>
+      </c>
+      <c r="H2">
+        <v>5.3512453543929848</v>
+      </c>
+      <c r="I2">
+        <v>15.635008703279288</v>
+      </c>
+      <c r="J2">
+        <v>12.410132133594914</v>
+      </c>
+      <c r="K2">
+        <v>-11.360657911353346</v>
+      </c>
+      <c r="L2">
+        <v>7.6672005183233081</v>
+      </c>
+      <c r="M2">
+        <v>19.75951825201383</v>
+      </c>
+      <c r="N2">
         <v>49.301159418377814</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>-4.977969127720586</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>56.272551863218709</v>
+      </c>
+      <c r="Q2">
+        <v>-30.213465633735652</v>
+      </c>
+      <c r="R2">
+        <v>10.722787820974062</v>
+      </c>
+      <c r="S2">
+        <v>17.394344656707602</v>
+      </c>
+      <c r="T2">
+        <v>0.50999844621097734</v>
+      </c>
+      <c r="U2">
+        <v>-16.954581084110274</v>
+      </c>
+      <c r="V2">
+        <v>18.776480910181458</v>
+      </c>
+      <c r="W2">
+        <v>21.971409063685666</v>
+      </c>
+      <c r="X2">
+        <v>4.2348354916030395</v>
+      </c>
+      <c r="Y2">
+        <v>-9.2178825588085598</v>
+      </c>
+      <c r="Z2">
+        <v>51.046316364824953</v>
+      </c>
+      <c r="AA2">
+        <v>10.142450247798839</v>
+      </c>
+      <c r="AB2">
+        <v>77.13569736744212</v>
+      </c>
+      <c r="AC2">
+        <v>16.679840975517848</v>
+      </c>
+      <c r="AD2">
+        <v>55.507646731180273</v>
+      </c>
+      <c r="AE2">
+        <v>105.07809593328253</v>
+      </c>
+      <c r="AF2">
+        <v>16.6867180808248</v>
+      </c>
+      <c r="AG2">
+        <v>9.0861837069263327</v>
+      </c>
+      <c r="AH2">
+        <v>18.100714762696953</v>
+      </c>
+      <c r="AI2">
+        <v>1.4306996525004254</v>
+      </c>
+      <c r="AJ2">
+        <v>17.293353976699851</v>
+      </c>
+      <c r="AK2">
+        <v>13.320110189449039</v>
+      </c>
+      <c r="AL2">
+        <v>9.9043277006895689</v>
+      </c>
+      <c r="AM2">
         <v>1.1676935802359607</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>8.8685582203942523</v>
       </c>
-      <c r="F2">
-        <v>172.74364005346877</v>
-      </c>
-      <c r="G2">
-        <v>11.045169160282454</v>
-      </c>
-      <c r="H2">
-        <v>5.3512452873185286</v>
-      </c>
-      <c r="I2">
-        <v>15.635008682556375</v>
-      </c>
-      <c r="J2">
-        <v>12.410132100008322</v>
-      </c>
-      <c r="K2">
-        <v>-11.360657983461369</v>
-      </c>
-      <c r="L2">
-        <v>7.6672005054814667</v>
-      </c>
-      <c r="M2">
-        <v>19.759518212218296</v>
-      </c>
-      <c r="N2">
-        <v>49.301159254127576</v>
-      </c>
-      <c r="O2">
-        <v>-4.9779692002666627</v>
-      </c>
-      <c r="P2">
-        <v>56.272551919086133</v>
-      </c>
-      <c r="Q2">
-        <v>-30.213465674189656</v>
-      </c>
-      <c r="R2">
-        <v>10.722787787963712</v>
-      </c>
-      <c r="S2">
-        <v>17.394344627542107</v>
-      </c>
-      <c r="T2">
-        <v>0.50999842505743798</v>
-      </c>
-      <c r="U2">
-        <v>-16.954581154346393</v>
-      </c>
-      <c r="V2">
-        <v>18.776480815993885</v>
-      </c>
-      <c r="W2">
-        <v>21.97140898497257</v>
-      </c>
-      <c r="X2">
-        <v>4.2348354933988412</v>
-      </c>
-      <c r="Y2">
-        <v>-9.2178826056998613</v>
-      </c>
-      <c r="Z2">
-        <v>51.046316314023656</v>
-      </c>
-      <c r="AA2">
-        <v>10.142450218656323</v>
-      </c>
-      <c r="AB2">
-        <v>77.135697351673358</v>
-      </c>
-      <c r="AC2">
-        <v>16.679840916403588</v>
-      </c>
-      <c r="AD2">
-        <v>55.507646682725841</v>
-      </c>
-      <c r="AE2">
-        <v>105.07809606969842</v>
-      </c>
-      <c r="AF2">
-        <v>16.686718080669543</v>
-      </c>
-      <c r="AG2">
-        <v>9.0861836420632383</v>
-      </c>
-      <c r="AH2">
-        <v>18.100714727593036</v>
-      </c>
-      <c r="AI2">
-        <v>1.4306996260717793</v>
-      </c>
-      <c r="AJ2">
-        <v>17.293353914894144</v>
-      </c>
-      <c r="AK2">
-        <v>13.320110165161047</v>
-      </c>
-      <c r="AL2">
-        <v>9.9043277278086066</v>
-      </c>
-      <c r="AM2">
-        <v>1.1676934945175683</v>
-      </c>
-      <c r="AN2">
-        <v>8.8685580603946033</v>
-      </c>
       <c r="AO2">
-        <v>28.091231526469194</v>
+        <v>28.091231499753388</v>
       </c>
       <c r="AP2">
-        <v>6.1009148816877943</v>
+        <v>6.1009149449399427</v>
       </c>
       <c r="AQ2">
-        <v>15.404249308902548</v>
+        <v>15.404249389654476</v>
       </c>
       <c r="AR2">
-        <v>12.294372174726224</v>
+        <v>12.294372170110659</v>
       </c>
       <c r="AS2">
-        <v>14.348641704638787</v>
+        <v>14.348641692963465</v>
       </c>
       <c r="AT2">
-        <v>-2.3042967573215596</v>
+        <v>-2.3042967127458813</v>
       </c>
       <c r="AU2">
-        <v>5.5106991901636224</v>
+        <v>5.5106992276975788</v>
       </c>
       <c r="AV2">
-        <v>51.826164591090553</v>
+        <v>51.82616462718309</v>
       </c>
       <c r="AW2">
-        <v>10.205477446519957</v>
+        <v>10.205477483019521</v>
       </c>
       <c r="AX2">
-        <v>20.232783462884253</v>
+        <v>20.232783255018397</v>
       </c>
       <c r="AY2">
-        <v>-3.3367452839408882</v>
+        <v>-3.3367452774499191</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>47.25669269030395</v>
+      </c>
+      <c r="C3">
+        <v>9.0819464025119796</v>
+      </c>
+      <c r="D3">
+        <v>-9.3410528744735135</v>
+      </c>
+      <c r="E3">
+        <v>25.151488374226183</v>
+      </c>
+      <c r="F3">
+        <v>31.996227255731235</v>
+      </c>
+      <c r="G3">
+        <v>9.7942802658895065</v>
+      </c>
+      <c r="H3">
+        <v>3.8027540157190574</v>
+      </c>
+      <c r="I3">
+        <v>5.2912933012824785</v>
+      </c>
+      <c r="J3">
+        <v>-4.4632617604139959</v>
+      </c>
+      <c r="K3">
+        <v>-11.14943128062847</v>
+      </c>
+      <c r="L3">
+        <v>-24.148367943768591</v>
+      </c>
+      <c r="M3">
+        <v>38.788202012745977</v>
+      </c>
+      <c r="N3">
         <v>46.018332723408086</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>9.1606185307708188</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>8.3202664592033244</v>
+      </c>
+      <c r="Q3">
+        <v>26.826071640348736</v>
+      </c>
+      <c r="R3">
+        <v>28.120344471525261</v>
+      </c>
+      <c r="S3">
+        <v>13.496911398584352</v>
+      </c>
+      <c r="T3">
+        <v>7.4939340176221929</v>
+      </c>
+      <c r="U3">
+        <v>4.0703310721550974</v>
+      </c>
+      <c r="V3">
+        <v>-26.845342466511447</v>
+      </c>
+      <c r="W3">
+        <v>-1.1179023875787608</v>
+      </c>
+      <c r="X3">
+        <v>18.465877011249688</v>
+      </c>
+      <c r="Y3">
+        <v>-37.104686916073874</v>
+      </c>
+      <c r="Z3">
+        <v>-8.4135446124231148</v>
+      </c>
+      <c r="AA3">
+        <v>26.80181803619741</v>
+      </c>
+      <c r="AB3">
+        <v>29.505351721073893</v>
+      </c>
+      <c r="AC3">
+        <v>12.934970623624684</v>
+      </c>
+      <c r="AD3">
+        <v>35.911486066106441</v>
+      </c>
+      <c r="AE3">
+        <v>30.543154171818532</v>
+      </c>
+      <c r="AF3">
+        <v>19.20104067108819</v>
+      </c>
+      <c r="AG3">
+        <v>2.303903718032807</v>
+      </c>
+      <c r="AH3">
+        <v>7.4712632890795838</v>
+      </c>
+      <c r="AI3">
+        <v>17.00142800552625</v>
+      </c>
+      <c r="AJ3">
+        <v>6.0541650956272317</v>
+      </c>
+      <c r="AK3">
+        <v>-1.4322789064415533</v>
+      </c>
+      <c r="AL3">
+        <v>1.1183724244300166</v>
+      </c>
+      <c r="AM3">
         <v>-13.455662020161444</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>41.709503591796292</v>
       </c>
-      <c r="F3">
-        <v>31.996227146194599</v>
-      </c>
-      <c r="G3">
-        <v>9.7942802142462728</v>
-      </c>
-      <c r="H3">
-        <v>3.8027539724835981</v>
-      </c>
-      <c r="I3">
-        <v>5.2912932658852467</v>
-      </c>
-      <c r="J3">
-        <v>-4.463261767358083</v>
-      </c>
-      <c r="K3">
-        <v>-11.14943132553088</v>
-      </c>
-      <c r="L3">
-        <v>-24.148367990708316</v>
-      </c>
-      <c r="M3">
-        <v>38.787714721505026</v>
-      </c>
-      <c r="N3">
-        <v>46.018332633918568</v>
-      </c>
-      <c r="O3">
-        <v>9.1606184639961334</v>
-      </c>
-      <c r="P3">
-        <v>8.3202664516074911</v>
-      </c>
-      <c r="Q3">
-        <v>26.826071522523876</v>
-      </c>
-      <c r="R3">
-        <v>28.120344405613668</v>
-      </c>
-      <c r="S3">
-        <v>13.496911366730984</v>
-      </c>
-      <c r="T3">
-        <v>7.4939339588309455</v>
-      </c>
-      <c r="U3">
-        <v>4.0703310322664379</v>
-      </c>
-      <c r="V3">
-        <v>-26.84534249652965</v>
-      </c>
-      <c r="W3">
-        <v>-1.117902522392153</v>
-      </c>
-      <c r="X3">
-        <v>18.465876745715391</v>
-      </c>
-      <c r="Y3">
-        <v>-37.104686944633173</v>
-      </c>
-      <c r="Z3">
-        <v>-8.4135446202013497</v>
-      </c>
-      <c r="AA3">
-        <v>26.801818030131475</v>
-      </c>
-      <c r="AB3">
-        <v>29.505351713530587</v>
-      </c>
-      <c r="AC3">
-        <v>12.934970547507895</v>
-      </c>
-      <c r="AD3">
-        <v>35.911485872577714</v>
-      </c>
-      <c r="AE3">
-        <v>30.543154103236731</v>
-      </c>
-      <c r="AF3">
-        <v>19.201040655710216</v>
-      </c>
-      <c r="AG3">
-        <v>2.3039034341549489</v>
-      </c>
-      <c r="AH3">
-        <v>7.4712633753645656</v>
-      </c>
-      <c r="AI3">
-        <v>17.001427901311523</v>
-      </c>
-      <c r="AJ3">
-        <v>6.0541650846901849</v>
-      </c>
-      <c r="AK3">
-        <v>-1.4322789164219085</v>
-      </c>
-      <c r="AL3">
-        <v>1.1183723751402668</v>
-      </c>
-      <c r="AM3">
-        <v>-13.455662071514919</v>
-      </c>
-      <c r="AN3">
-        <v>41.709503480838094</v>
-      </c>
       <c r="AO3">
-        <v>24.965443886382829</v>
+        <v>24.965443940526896</v>
       </c>
       <c r="AP3">
-        <v>12.098194878575971</v>
+        <v>12.098194958008065</v>
       </c>
       <c r="AQ3">
-        <v>9.2166419138514755</v>
+        <v>9.2166417836742944</v>
       </c>
       <c r="AR3">
-        <v>8.8062098042035135</v>
+        <v>8.8062098080422437</v>
       </c>
       <c r="AS3">
-        <v>26.761830598233239</v>
+        <v>26.761830640255695</v>
       </c>
       <c r="AT3">
-        <v>9.6365489448707606</v>
+        <v>9.6365489274125711</v>
       </c>
       <c r="AU3">
-        <v>10.269656038934743</v>
+        <v>10.269656094417694</v>
       </c>
       <c r="AV3">
-        <v>4.4622924561805899</v>
+        <v>4.4622925183759543</v>
       </c>
       <c r="AW3">
-        <v>41.166538471627575</v>
+        <v>41.166538774151988</v>
       </c>
       <c r="AX3">
-        <v>12.273131879684932</v>
+        <v>12.27313197987934</v>
       </c>
       <c r="AY3">
-        <v>-48.594549933671352</v>
+        <v>-48.594549901089408</v>
       </c>
     </row>
   </sheetData>
